--- a/4.bom/Panther_bom表.xlsx
+++ b/4.bom/Panther_bom表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="21000" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>若干M3螺母</t>
+  </si>
+  <si>
+    <t>橡胶垫片 M3*6*0.8 (200粒) 白</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=20848580632&amp;pisk=gRb46witlrUqJIpvmaTZYWLacZTvvFyQIN96s1fMGKv0XIai715H1SeTMgRGCTFTME1MQOWWeVO_DR3NUt1hcn61cdAMETfjldavbO5CpOg_kiOi7T19jO_N6VRGsOFvCSE5MsL9SJwB7y1AMHPTk8Q2nQDlwC3imutm0z5bNJwQRPrmZFy4dOsmGiGkTBYMihmDZ7RM9qYMjd0uaCAsnc0cI7Py9CJiodvcZUAXtFAMSVAoZBODIcvDj75keCYMIOx0a_D3_dvIzB-01oOP7gDR8nJhiLuFwgA0ad4pnV4NrI5yKsmtSVbygn7lbG0SknsG9HQfoPuJl6SkrB1Yu48hiBWXF94nzUf5ZOtd2R3B2T7wvZxms7vluT7votZi898VQHbD4f01isvvzQb31Dp5zK6Gu3VI8hTlRHYcVueXfERFIZBq_VXhN6_v2NyEEdIX9UACMruy-sAG4vD9Z0udWikibnAJapNzazlx8OHHjlU-XcKA2QJQMSntXnAJapNzacn9DUdydSFA.&amp;spm=tbpc.boughtlist.suborder_itempic.d20848580632.3cc82e8dZU5ygD</t>
   </si>
   <si>
     <t>达妙4340电机</t>
@@ -150,7 +156,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +199,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,124 +684,124 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,7 +827,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1344,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1420,173 +1434,173 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>799</v>
+        <v>3.4</v>
       </c>
       <c r="E4" s="3">
-        <f>(C4*D4)</f>
-        <v>2397</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <f>C4*D4</f>
+        <v>3.4</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>669</v>
+        <v>799</v>
       </c>
       <c r="E5" s="3">
         <f>(C5*D5)</f>
-        <v>1338</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E12" si="0">(C6*D6)</f>
-        <v>599</v>
-      </c>
-      <c r="F6" s="3"/>
+        <f>(C6*D6)</f>
+        <v>1338</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
+        <v>599</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E13" si="0">(C7*D7)</f>
+        <v>599</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>199</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>1.85</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>25.9</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ref="E10:E17" si="1">(C10*D10)</f>
-        <v>14</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" ref="E11:E18" si="1">(C11*D11)</f>
+        <v>14</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1602,28 +1616,26 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1632,38 +1644,38 @@
         <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="14" customHeight="1" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:6">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1672,44 +1684,57 @@
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>275</v>
+        <v>4.2</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="F16" s="7" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" ht="14" customHeight="1" spans="1:6">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3"/>
@@ -1735,54 +1760,58 @@
       <c r="E21" s="3"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" ht="74" customHeight="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3">
-        <f>SUM(E4:E17)</f>
-        <v>5186.1</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" ht="74" customHeight="1" spans="1:6">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM(E4:E18)</f>
+        <v>5189.5</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" ht="13" customHeight="1" spans="1:3">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" ht="55" customHeight="1" spans="1:3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" ht="13" customHeight="1" spans="1:3">
       <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="55" customHeight="1" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
@@ -1793,8 +1822,9 @@
       <c r="A30" s="3"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="3"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3"/>
@@ -1853,26 +1883,30 @@
     <row r="50" spans="1:1">
       <c r="A50" s="3"/>
     </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://item.taobao.com/item.htm?id=775159686012&amp;pisk=gZTEAcZ8R23eocXdxF_z0x-GhcQdJakjTU65ZQAlO9XhdU9yZsC8x_4htO0GiOaS9wiRzLWwe9sC-U-TzIdJRXQS9wddyaDjhq_y9BQR_IpKNePGjsAg-8jofNxa9SGshqgX9DfdPCDXPzJDb65brajhqOjGBsqlZLj3S5XOw_2hZycZ_OC7-yq3x5jGNswhry43SNffTu2lZabGjOClr6XkECcNNOXohuWlhP5VxbZnosA_F2SCnBXarrPATMc69ua7PufhxtjG9zj676SFnBY4xKGdsFTNcGNSDNAvfpfNuVZhoC-k3nv-clQeZHvRbpHTbOtMJQXlf742_IRHmNYSZSIwI_ScrGPurC7dIK8Coq2N6hABqepUazfpREsPHGluyg_MlixDL7hvswfkeiLSHyBHZILvcZu_xZAwqK-P4w2RslzvyHyu4MfO_tGZ_VPLuLQJTbxQ2uIpX1Wj9XE82MfO_tGZ_uERvNCNhXhd.&amp;spm=a21xtw.29178619.0.0" tooltip="https://item.taobao.com/item.htm?id=775159686012&amp;pisk=gZTEAcZ8R23eocXdxF_z0x-GhcQdJakjTU65ZQAlO9XhdU9yZsC8x_4htO0GiOaS9wiRzLWwe9sC-U-TzIdJRXQS9wddyaDjhq_y9BQR_IpKNePGjsAg-8jofNxa9SGshqgX9DfdPCDXPzJDb65brajhqOjGBsqlZLj3S5XOw_2hZycZ_OC7-yq3x5jGNswhry43SNffT"/>
-    <hyperlink ref="B27" r:id="rId2" display="https://detail.tmall.com/item.htm?_u=o2rtso892077&amp;id=645580609321&amp;spm=a1z09.2.0.0.40262e8drWVAiV"/>
-    <hyperlink ref="F6" r:id="rId3" tooltip="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAM"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://item.taobao.com/item.htm?abbucket=4&amp;detail_redpacket_pop=true&amp;id=871173947758&amp;ltk2=1746452206223gw51pcbpi3gwm2pd6cxu&amp;ns=1&amp;priceTId=213e046917464522037905039e13cd&amp;query=%E8%BE%BE%E5%A6%993510&amp;skuId=5872003791068&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2200e61ab66bdc6e1f86ffe9bbafb6863b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=4&amp;detail_redpacket_pop=true&amp;id=871173947758&amp;ltk2=1746452206223gw51pcbpi3gwm2pd6cxu&amp;ns=1&amp;priceTId=213e046917464522037905039e13cd&amp;query=%E8%BE%BE%E5%A6%993510&amp;skuId=5872003791068&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAMZFO2ueTdlFt6GpSe72_X5HbXQwklSHXnfIXhAXA_xN5XGn7eCVKhNI_U0efLWMbNBd-V64b9xF5XI3Bx_V_ZDdyPY0-kjyo1HO7jb0t6RGRwCzmB4G7hjRCs5om3cNqhEdmFuFjMrgWpZ2SUmMsWz9vDYZbGyoSwO70cVhmfr0fIpD8Db03trLkZ8iqYPN3P_dxUYNYRVG2ZGFqRYh7805PYlcoWfeswsszlMPIPLQ1Fyj_FWJWFNbgQWft3hbRagaYE8oeFL1fSreuFWJWFNbgk82z8L95GNf..&amp;spm=a21xtw.29178619.0.0" tooltip="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAM"/>
-    <hyperlink ref="F8" r:id="rId5" display="https://item.taobao.com/item.htm?id=737472229828&amp;pisk=gCsuO6XT5a87f_Pvkit7SWuaw6zvy3tCY6np9HdUuIRbd438FeJFK6jdy9Rpx6fhtQLUN3IhiO6LFMeW4kvF6sxdeQddiJfRdDF7R3nEt_6aNTdLFMAei_5HR8OpTBfdLaeYXlB5FHtet5ETX80HaU1o4BozLIJJE-pzharF7HtU6W0xYUZMA_lhcolruKRXKpleY6-qgdJMYpJyY-A2KdgEa65UnIJ6IXuezQJ2gpRqa0oyTj82KpHrTeoUntRXCY-eY684npMfXzR5YiS4G84pfHj_cNvkrCWyaTBR0V8qPTO0H-scoPA1U2iEYivkri5EGjlkywW65gIzxmtRIZ-2BTZomhWyI_dA_loD0tBV9F_bOcLfiMY14UkU3ISligtPwyoGs3fH7g8mLDBPUQtD3GyK5IIDw6SkuRnMJnS9737Yl7LpqdfFV_DnY1WABgTfx5c2Oap60dB7qmxNUpSzIquZUqnB3JIqR2TyhKAT5o9Yhq_6Fm20nVyBzK9W6-2mR2TyhKATn-0aAUJXFCC..&amp;spm=tbpc.boughtlist.suborder_itempic.d737472229828.3fbc2e8dFPSbfD" tooltip="https://item.taobao.com/item.htm?id=737472229828&amp;pisk=gCsuO6XT5a87f_Pvkit7SWuaw6zvy3tCY6np9HdUuIRbd438FeJFK6jdy9Rpx6fhtQLUN3IhiO6LFMeW4kvF6sxdeQddiJfRdDF7R3nEt_6aNTdLFMAei_5HR8OpTBfdLaeYXlB5FHtet5ETX80HaU1o4BozLIJJE-pzharF7HtU6W0xYUZMA_lhcolruKRXKpleY6-qg"/>
-    <hyperlink ref="F10" r:id="rId6" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
+    <hyperlink ref="F5" r:id="rId1" display="https://item.taobao.com/item.htm?id=775159686012&amp;pisk=gZTEAcZ8R23eocXdxF_z0x-GhcQdJakjTU65ZQAlO9XhdU9yZsC8x_4htO0GiOaS9wiRzLWwe9sC-U-TzIdJRXQS9wddyaDjhq_y9BQR_IpKNePGjsAg-8jofNxa9SGshqgX9DfdPCDXPzJDb65brajhqOjGBsqlZLj3S5XOw_2hZycZ_OC7-yq3x5jGNswhry43SNffTu2lZabGjOClr6XkECcNNOXohuWlhP5VxbZnosA_F2SCnBXarrPATMc69ua7PufhxtjG9zj676SFnBY4xKGdsFTNcGNSDNAvfpfNuVZhoC-k3nv-clQeZHvRbpHTbOtMJQXlf742_IRHmNYSZSIwI_ScrGPurC7dIK8Coq2N6hABqepUazfpREsPHGluyg_MlixDL7hvswfkeiLSHyBHZILvcZu_xZAwqK-P4w2RslzvyHyu4MfO_tGZ_VPLuLQJTbxQ2uIpX1Wj9XE82MfO_tGZ_uERvNCNhXhd.&amp;spm=a21xtw.29178619.0.0" tooltip="https://item.taobao.com/item.htm?id=775159686012&amp;pisk=gZTEAcZ8R23eocXdxF_z0x-GhcQdJakjTU65ZQAlO9XhdU9yZsC8x_4htO0GiOaS9wiRzLWwe9sC-U-TzIdJRXQS9wddyaDjhq_y9BQR_IpKNePGjsAg-8jofNxa9SGshqgX9DfdPCDXPzJDb65brajhqOjGBsqlZLj3S5XOw_2hZycZ_OC7-yq3x5jGNswhry43SNffT"/>
+    <hyperlink ref="B28" r:id="rId2" display="https://detail.tmall.com/item.htm?_u=o2rtso892077&amp;id=645580609321&amp;spm=a1z09.2.0.0.40262e8drWVAiV"/>
+    <hyperlink ref="F7" r:id="rId3" tooltip="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAM"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://item.taobao.com/item.htm?abbucket=4&amp;detail_redpacket_pop=true&amp;id=871173947758&amp;ltk2=1746452206223gw51pcbpi3gwm2pd6cxu&amp;ns=1&amp;priceTId=213e046917464522037905039e13cd&amp;query=%E8%BE%BE%E5%A6%993510&amp;skuId=5872003791068&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B%22aplus_abtest%22%3A%2200e61ab66bdc6e1f86ffe9bbafb6863b%22%7D&amp;xxc=taobaoSearch" tooltip="https://item.taobao.com/item.htm?abbucket=4&amp;detail_redpacket_pop=true&amp;id=871173947758&amp;ltk2=1746452206223gw51pcbpi3gwm2pd6cxu&amp;ns=1&amp;priceTId=213e046917464522037905039e13cd&amp;query=%E8%BE%BE%E5%A6%993510&amp;skuId=5872003791068&amp;spm=a21n57.1.hoverItem.2&amp;utparam=%7B"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAMZFO2ueTdlFt6GpSe72_X5HbXQwklSHXnfIXhAXA_xN5XGn7eCVKhNI_U0efLWMbNBd-V64b9xF5XI3Bx_V_ZDdyPY0-kjyo1HO7jb0t6RGRwCzmB4G7hjRCs5om3cNqhEdmFuFjMrgWpZ2SUmMsWz9vDYZbGyoSwO70cVhmfr0fIpD8Db03trLkZ8iqYPN3P_dxUYNYRVG2ZGFqRYh7805PYlcoWfeswsszlMPIPLQ1Fyj_FWJWFNbgQWft3hbRagaYE8oeFL1fSreuFWJWFNbgk82z8L95GNf..&amp;spm=a21xtw.29178619.0.0" tooltip="https://item.taobao.com/item.htm?id=730437945135&amp;pisk=gqnjb2NnKsfby9ZOCrvzdHtCDmZsGL-elOwtKAIVBoEY6OG-BGIYHPCR2RefMPFwofas_b4t0okqNtmSOGS2iEDOflr9TB-eYxD4jldek2mcSs2UQiKa6PU8mRPPTw8yYxD0jt19L4KFCtJ8WtQT6fE8yReaXGIY6LZ8QJrODPIAy_FuwleTMSKJ2-2aHNIx6_F8IJIAM"/>
+    <hyperlink ref="F9" r:id="rId5" display="https://item.taobao.com/item.htm?id=737472229828&amp;pisk=gCsuO6XT5a87f_Pvkit7SWuaw6zvy3tCY6np9HdUuIRbd438FeJFK6jdy9Rpx6fhtQLUN3IhiO6LFMeW4kvF6sxdeQddiJfRdDF7R3nEt_6aNTdLFMAei_5HR8OpTBfdLaeYXlB5FHtet5ETX80HaU1o4BozLIJJE-pzharF7HtU6W0xYUZMA_lhcolruKRXKpleY6-qgdJMYpJyY-A2KdgEa65UnIJ6IXuezQJ2gpRqa0oyTj82KpHrTeoUntRXCY-eY684npMfXzR5YiS4G84pfHj_cNvkrCWyaTBR0V8qPTO0H-scoPA1U2iEYivkri5EGjlkywW65gIzxmtRIZ-2BTZomhWyI_dA_loD0tBV9F_bOcLfiMY14UkU3ISligtPwyoGs3fH7g8mLDBPUQtD3GyK5IIDw6SkuRnMJnS9737Yl7LpqdfFV_DnY1WABgTfx5c2Oap60dB7qmxNUpSzIquZUqnB3JIqR2TyhKAT5o9Yhq_6Fm20nVyBzK9W6-2mR2TyhKATn-0aAUJXFCC..&amp;spm=tbpc.boughtlist.suborder_itempic.d737472229828.3fbc2e8dFPSbfD" tooltip="https://item.taobao.com/item.htm?id=737472229828&amp;pisk=gCsuO6XT5a87f_Pvkit7SWuaw6zvy3tCY6np9HdUuIRbd438FeJFK6jdy9Rpx6fhtQLUN3IhiO6LFMeW4kvF6sxdeQddiJfRdDF7R3nEt_6aNTdLFMAei_5HR8OpTBfdLaeYXlB5FHtet5ETX80HaU1o4BozLIJJE-pzharF7HtU6W0xYUZMA_lhcolruKRXKpleY6-qg"/>
     <hyperlink ref="F11" r:id="rId6" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
     <hyperlink ref="F12" r:id="rId6" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
-    <hyperlink ref="F9" r:id="rId6" display="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZbYlZUeozafuZ3xdE47Pr_AkxLUkETblZ_fMv83uy4FRZex8ezvPrbODo_borz7yZHcQEOurab16hymiuIHF-K2c4LXyLHlWi2ewxs2gTxv2MgRliBAEiK2cqzxm-6kPTUkEI5sAqVRU0ZzP5kFi3UyoEHJsHjmyUWuDT2TLoTWZgQkgMnnmu8W4rlPjXl2uotPrESL-zCczEkzVhteGUJ50jQVJlcAFx_JZUSTOaLShnYAuO0t2ZzPEIlkCwxmzbpDUzNZLsx8zEjg8M7EJeW3MNel8WP2ksIjQffAB65rMBjOXMuTgECvGAIOYWP2ksIjBGIESS8AMIM&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.3fbc2e8dFPSbfD" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
-    <hyperlink ref="F13" r:id="rId7" display="https://item.taobao.com/item.htm?id=848276155434&amp;pisk=gvIU_Lg-AkEeuWOp-GtruSPc7yKpj3PbZgOWETXkdBA3ypZo4TWDFJF8pNJlN1e8pH6ka_566097J7nP_66cRe15RQvks1XIAQZpz_WfM_i7vw9o416Jr_sPe0JlE_epNJU1p9KJqSNX4o6dpML_BFjetdDGBLikZPTn8lWQCSNbcuznI3PUG_izInaM3KxkKUmlIRJWH40hZUmGICpJEXvoxRyw6LnnKexoIVvynQxoqQDMSKvXK2vHZCvM6LxkE_xuQFA9Ev4wZIiw3e2S-XSF2fbw8IXH_mWObp2eGodiqSsMLO51KznoqGJe8Gfo6fceRaXvkMs34cKC3NxMh9EEbnXH36O1iomwjO6GNEQTwmTO_g8AxeDuICjF_MKhOzmVgH5yoMYZE06hKBKwIi2SkCswO_jeS-i2PhjXoHb_WWTWYK5lv6krqsX1hMLO4SlMww9vjK6LYc-cKLjzYbpi7mIR8b0y-dpwGRyabvnVwvs_pa0-yeQ9QIwLp43J-dpwGRyZy4LpXdRbpJC..&amp;spm=tbpc.boughtlist.suborder_itempic.d848276155434.61482e8d5cM3Br&amp;sku_properties=122276018%3A20213" tooltip="https://item.taobao.com/item.htm?id=848276155434&amp;pisk=gvIU_Lg-AkEeuWOp-GtruSPc7yKpj3PbZgOWETXkdBA3ypZo4TWDFJF8pNJlN1e8pH6ka_566097J7nP_66cRe15RQvks1XIAQZpz_WfM_i7vw9o416Jr_sPe0JlE_epNJU1p9KJqSNX4o6dpML_BFjetdDGBLikZPTn8lWQCSNbcuznI3PUG_izInaM3KxkKUmlIRJWH"/>
-    <hyperlink ref="F16" r:id="rId8" display="https://item.taobao.com/item.htm?from=cart&amp;id=730306309245&amp;pisk=fb3xFV61fLvDUoCR2GtuIS8MDAAoDVhqwxlCSR2cfYH-CAFGSfwgWAHtB-q63r0teAMTsNcsS5gTu4mcS-v4WfM3WpvH-ecqglz6Kpmkcy1uR5jfcO2bV8M0FHQy-ecqwsVXtbTnoQL-VWI15AZbV8N3FSNb5NO8P5PY5ZZ1lg67U8w_5-N_PaNTT5s_1PORF5N1lRN_hbT76Wsb5PMsNbBvB81bINnikITsPKyd5NgX7oeKrGbOW0FbDVGbebcoySEYduI3xt0jEfgmuu-PqPlovAnsdLj0hDFKekmvpZHK35M8o2Ow0ursWVFr4dITpcGmYcZJGEG8k-EsrY1h4rns3VEqD1RENrMrYJrX4LP-o2qTLuBWhbc8hkntnL7_nDhSek0lEw4IYY3TAyszI20dthW3p5jXwQINboNrdphyVMEeh4V8KILObGrya7eHwQINboNzwJAv6GSa4Q5..&amp;skuId=5230836882690&amp;spm=a1z0d.6639537%2F202410.item.d730306309245.29f37484lqJsKU&amp;u_channel=null&amp;umpChannel=null"/>
+    <hyperlink ref="F13" r:id="rId6" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZbYlZUeozafuZ3xdE47Pr_AkxLUkETblZ_fMv83uy4FRZex8ezvPrbODo_borz7yZHcQEOurab16hymiuIHF-K2c4LXyLHlWi2ewxs2gTxv2MgRliBAEiK2cqzxm-6kPTUkEI5sAqVRU0ZzP5kFi3UyoEHJsHjmyUWuDT2TLoTWZgQkgMnnmu8W4rlPjXl2uotPrESL-zCczEkzVhteGUJ50jQVJlcAFx_JZUSTOaLShnYAuO0t2ZzPEIlkCwxmzbpDUzNZLsx8zEjg8M7EJeW3MNel8WP2ksIjQffAB65rMBjOXMuTgECvGAIOYWP2ksIjBGIESS8AMIM&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.3fbc2e8dFPSbfD" tooltip="https://item.taobao.com/item.htm?id=654286714565&amp;pisk=g6Z3sl2AlyuBly1tWliCo_8V977TJDi747K-w0hP7fl1FeLdd4kzE7q8J8l-q7VuZX3PODEus-wRduBIYgDzM5m8pXh8sTVLF3CCPDKyZWwVOJhRducrsWPoP9G-abV8UyBODieQd0irZsIAD9YoT2NHz0kFUfkjLOHFCySzu0iPM_Y942smVWRu5v8e7AlsEYRr87RZb"/>
+    <hyperlink ref="F14" r:id="rId7" display="https://item.taobao.com/item.htm?id=848276155434&amp;pisk=gvIU_Lg-AkEeuWOp-GtruSPc7yKpj3PbZgOWETXkdBA3ypZo4TWDFJF8pNJlN1e8pH6ka_566097J7nP_66cRe15RQvks1XIAQZpz_WfM_i7vw9o416Jr_sPe0JlE_epNJU1p9KJqSNX4o6dpML_BFjetdDGBLikZPTn8lWQCSNbcuznI3PUG_izInaM3KxkKUmlIRJWH40hZUmGICpJEXvoxRyw6LnnKexoIVvynQxoqQDMSKvXK2vHZCvM6LxkE_xuQFA9Ev4wZIiw3e2S-XSF2fbw8IXH_mWObp2eGodiqSsMLO51KznoqGJe8Gfo6fceRaXvkMs34cKC3NxMh9EEbnXH36O1iomwjO6GNEQTwmTO_g8AxeDuICjF_MKhOzmVgH5yoMYZE06hKBKwIi2SkCswO_jeS-i2PhjXoHb_WWTWYK5lv6krqsX1hMLO4SlMww9vjK6LYc-cKLjzYbpi7mIR8b0y-dpwGRyabvnVwvs_pa0-yeQ9QIwLp43J-dpwGRyZy4LpXdRbpJC..&amp;spm=tbpc.boughtlist.suborder_itempic.d848276155434.61482e8d5cM3Br&amp;sku_properties=122276018%3A20213" tooltip="https://item.taobao.com/item.htm?id=848276155434&amp;pisk=gvIU_Lg-AkEeuWOp-GtruSPc7yKpj3PbZgOWETXkdBA3ypZo4TWDFJF8pNJlN1e8pH6ka_566097J7nP_66cRe15RQvks1XIAQZpz_WfM_i7vw9o416Jr_sPe0JlE_epNJU1p9KJqSNX4o6dpML_BFjetdDGBLikZPTn8lWQCSNbcuznI3PUG_izInaM3KxkKUmlIRJWH"/>
+    <hyperlink ref="F17" r:id="rId8" display="https://item.taobao.com/item.htm?from=cart&amp;id=730306309245&amp;pisk=fb3xFV61fLvDUoCR2GtuIS8MDAAoDVhqwxlCSR2cfYH-CAFGSfwgWAHtB-q63r0teAMTsNcsS5gTu4mcS-v4WfM3WpvH-ecqglz6Kpmkcy1uR5jfcO2bV8M0FHQy-ecqwsVXtbTnoQL-VWI15AZbV8N3FSNb5NO8P5PY5ZZ1lg67U8w_5-N_PaNTT5s_1PORF5N1lRN_hbT76Wsb5PMsNbBvB81bINnikITsPKyd5NgX7oeKrGbOW0FbDVGbebcoySEYduI3xt0jEfgmuu-PqPlovAnsdLj0hDFKekmvpZHK35M8o2Ow0ursWVFr4dITpcGmYcZJGEG8k-EsrY1h4rns3VEqD1RENrMrYJrX4LP-o2qTLuBWhbc8hkntnL7_nDhSek0lEw4IYY3TAyszI20dthW3p5jXwQINboNrdphyVMEeh4V8KILObGrya7eHwQINboNzwJAv6GSa4Q5..&amp;skuId=5230836882690&amp;spm=a1z0d.6639537%2F202410.item.d730306309245.29f37484lqJsKU&amp;u_channel=null&amp;umpChannel=null"/>
+    <hyperlink ref="F4" r:id="rId9" display="https://detail.tmall.com/item.htm?id=20848580632&amp;pisk=gRb46witlrUqJIpvmaTZYWLacZTvvFyQIN96s1fMGKv0XIai715H1SeTMgRGCTFTME1MQOWWeVO_DR3NUt1hcn61cdAMETfjldavbO5CpOg_kiOi7T19jO_N6VRGsOFvCSE5MsL9SJwB7y1AMHPTk8Q2nQDlwC3imutm0z5bNJwQRPrmZFy4dOsmGiGkTBYMihmDZ7RM9qYMjd0uaCAsnc0cI7Py9CJiodvcZUAXtFAMSVAoZBODIcvDj75keCYMIOx0a_D3_dvIzB-01oOP7gDR8nJhiLuFwgA0ad4pnV4NrI5yKsmtSVbygn7lbG0SknsG9HQfoPuJl6SkrB1Yu48hiBWXF94nzUf5ZOtd2R3B2T7wvZxms7vluT7votZi898VQHbD4f01isvvzQb31Dp5zK6Gu3VI8hTlRHYcVueXfERFIZBq_VXhN6_v2NyEEdIX9UACMruy-sAG4vD9Z0udWikibnAJapNzazlx8OHHjlU-XcKA2QJQMSntXnAJapNzacn9DUdydSFA.&amp;spm=tbpc.boughtlist.suborder_itempic.d20848580632.3cc82e8dZU5ygD"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
